--- a/bb_openpyxl/tests/test.xlsx
+++ b/bb_openpyxl/tests/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\cti\bb-py\bb_openpyxl_py\bb_openpyxl\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3804FF8-EE76-4F15-8E1E-A921C7148AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EB6BC1-976B-4200-80FF-936D6F78C60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -261,40 +261,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thick">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thick">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thick">
         <color indexed="12"/>
       </right>
       <top style="thick">
@@ -526,85 +496,425 @@
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="40"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0_ "/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0_ "/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thick">
+          <color indexed="12"/>
+        </left>
+        <right style="thick">
+          <color indexed="12"/>
+        </right>
+        <top style="thick">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -625,6 +935,34 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23ADA257-7785-4DFA-A418-F18CA539A6F6}" name="表2" displayName="表2" ref="A2:K12" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A2:K12" xr:uid="{23ADA257-7785-4DFA-A418-F18CA539A6F6}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{846F3441-CD42-4794-93FF-B9D168521744}" name="学号" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B459E6BA-5C5B-446D-BC72-D812A06C1419}" name="姓名" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{65D94E75-6F49-4297-B846-6425C16261D6}" name="出生日期" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{19FA981A-9C76-403B-B0BE-28EEBFAB1CCC}" name="专业" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{28F6A0FB-F61F-4688-8759-220A57B8363D}" name="计算机" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{7F984B8B-570C-464E-BBF0-7665F72A9598}" name="大学英语" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{3F02FE88-B373-4707-ABFD-37AF62E6AD30}" name="高等数学" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{D3BB417D-13F7-4DB0-B75E-F7DB7EF46C0B}" name="总分" dataDxfId="4">
+      <calculatedColumnFormula>SUM(E3:G3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{A610F8A7-C077-41C6-A075-4CF547147CF1}" name="平均分" dataDxfId="3">
+      <calculatedColumnFormula>AVERAGE(E3:G3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{CFC377BB-CB92-4F04-B714-17FBA72344AD}" name="排名" dataDxfId="2">
+      <calculatedColumnFormula>RANK(I3,$I$3:$I$12,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{65616F9D-B2CA-49BD-BAD5-533029D0EB73}" name="总评" dataDxfId="1">
+      <calculatedColumnFormula>IF(I3&gt;=60,"及格","不及格")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -914,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -925,565 +1263,567 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="7" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>34466</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>90</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>85</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>86</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <f t="shared" ref="H3:H12" si="0">SUM(E3:G3)</f>
         <v>261</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <f>AVERAGE(E3:G3)</f>
         <v>87</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="6">
         <f>RANK(I3,$I$3:$I$12,0)</f>
         <v>2</v>
       </c>
-      <c r="K3" s="10" t="str">
+      <c r="K3" s="29" t="str">
         <f>IF(I3&gt;=60,"及格","不及格")</f>
         <v>及格</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>34011</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <v>91</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>82</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>83</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="5">
         <f t="shared" ref="I4:I12" si="1">AVERAGE(E4:G4)</f>
         <v>85.333333333333329</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="6">
         <f t="shared" ref="J4:J12" si="2">RANK(I4,$I$3:$I$12,0)</f>
         <v>3</v>
       </c>
-      <c r="K4" s="10" t="str">
+      <c r="K4" s="29" t="str">
         <f t="shared" ref="K4:K12" si="3">IF(I4&gt;=60,"及格","不及格")</f>
         <v>及格</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>34127</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>74</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>86</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>77</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K5" s="10" t="str">
+      <c r="K5" s="29" t="str">
         <f t="shared" si="3"/>
         <v>及格</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>34572</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>80</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>52</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="7">
         <v>88</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="5">
         <f t="shared" si="1"/>
         <v>73.333333333333329</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K6" s="10" t="str">
+      <c r="K6" s="29" t="str">
         <f t="shared" si="3"/>
         <v>及格</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>34305</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>78</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>68</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>86</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="5">
         <f t="shared" si="1"/>
         <v>77.333333333333329</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K7" s="10" t="str">
+      <c r="K7" s="29" t="str">
         <f t="shared" si="3"/>
         <v>及格</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>34289</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>67</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>65</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <v>44</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="5">
         <f t="shared" si="1"/>
         <v>58.666666666666664</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K8" s="10" t="str">
+      <c r="K8" s="29" t="str">
         <f t="shared" si="3"/>
         <v>不及格</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>34347</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>82</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>83</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>81</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="5">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K9" s="10" t="str">
+      <c r="K9" s="29" t="str">
         <f t="shared" si="3"/>
         <v>及格</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>34372</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>56</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>42</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="4">
         <v>66</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="5">
         <f t="shared" si="1"/>
         <v>54.666666666666664</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K10" s="10" t="str">
+      <c r="K10" s="29" t="str">
         <f t="shared" si="3"/>
         <v>不及格</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>34460</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>69</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>87</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>85</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>241</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="5">
         <f t="shared" si="1"/>
         <v>80.333333333333329</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K11" s="10" t="str">
+      <c r="K11" s="29" t="str">
         <f t="shared" si="3"/>
         <v>及格</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="35">
         <v>34250</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="14">
         <v>81</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="36">
         <v>95</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="36">
         <v>88</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="37">
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="37">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K12" s="10" t="str">
+      <c r="K12" s="39" t="str">
         <f t="shared" si="3"/>
         <v>及格</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="13"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="8">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="5">
         <f>MAX(计算机成绩)</f>
         <v>91</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="5">
         <f>MAX(F3:F12)</f>
         <v>95</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="5">
         <f>MAX(G3:G12)</f>
         <v>88</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="22">
         <f>SUM(H3:H12)</f>
         <v>2297</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="22">
         <f>SUM(I3:I12)</f>
         <v>765.66666666666663</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="13">
         <f>ATAN2(H8,I12)</f>
         <v>0.46364760900080609</v>
       </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="8">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="5">
         <f>MIN(计算机成绩)</f>
         <v>56</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <f>MIN(F3:F12)</f>
         <v>42</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="5">
         <f>MIN(G3:G12)</f>
         <v>44</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="13"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="5">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="2">
         <f>COUNT(E3:E12)</f>
         <v>10</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <f>COUNT(F3:F12)</f>
         <v>10</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <f>COUNT(G3:G12)</f>
         <v>10</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="13"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="14">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="10">
         <f>COUNTIF(计算机成绩,"&gt;=60")</f>
         <v>9</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="10">
         <f>COUNTIF(F3:F12,"&gt;=60")</f>
         <v>8</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="10">
         <f>COUNTIF(G3:G12,"&gt;=60")</f>
         <v>9</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="14.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1498,11 +1838,14 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E3:G12">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1510,7 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A79C600-AA21-47F9-A3FD-34E8625994B9}">
   <dimension ref="B6:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:H10"/>
     </sheetView>
   </sheetViews>
@@ -1521,132 +1864,132 @@
   <sheetData>
     <row r="6" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="8">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="5">
         <f>MAX(计算机成绩)</f>
         <v>91</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <f>MAX(原始数据!F3:F12)</f>
         <v>95</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="5">
         <f>MAX(原始数据!G3:G12)</f>
         <v>88</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="22">
         <f>SUM(原始数据!H3:H12)</f>
         <v>2297</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="22">
         <f>SUM(原始数据!H3:H12)</f>
         <v>2297</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="8">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="5">
         <f>MIN(计算机成绩)</f>
         <v>56</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <f>MIN(原始数据!F3:F12)</f>
         <v>42</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
         <f>MIN(原始数据!G3:G12)</f>
         <v>44</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="5">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="2">
         <f>COUNT(计算机成绩)</f>
         <v>10</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <f>COUNT(原始数据!F3:F12)</f>
         <v>10</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="2">
         <f>COUNT(原始数据!G3:G12)</f>
         <v>10</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="14">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="10">
         <f>COUNTIF(计算机成绩,"&gt;=60")</f>
         <v>9</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <f>COUNTIF((原始数据!F3:F12),"&gt;=60")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="10">
         <f>COUNTIF((原始数据!G3:G12),"&gt;=60")</f>
         <v>9</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="2:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="I8:I11"/>
     <mergeCell ref="J8:J11"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
